--- a/dist/data/profiles/xlsx/bluff/profile 38-1 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 38-1 graph.xlsx
@@ -20119,11 +20119,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="55905441"/>
-        <c:axId val="91011426"/>
+        <c:axId val="90505613"/>
+        <c:axId val="98763349"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55905441"/>
+        <c:axId val="90505613"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20158,12 +20158,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91011426"/>
+        <c:crossAx val="98763349"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91011426"/>
+        <c:axId val="98763349"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20207,7 +20207,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55905441"/>
+        <c:crossAx val="90505613"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
